--- a/TemperatureData/CampJohnson01/1001.xlsx
+++ b/TemperatureData/CampJohnson01/1001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice.sharepoint.com/sites/TeamMosher/Shared Documents/General/People/Scott, Reed/FieldWork2022/HoboLoggerData/LilyPadPond/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepos\VTADS\TemperatureData\CampJohnson01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C912C21D-8950-4D3A-94A5-45371B58055C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BCF7FE-C812-4E95-8F30-88310558ED0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1001" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Plot Title: 21422117</t>
   </si>
@@ -50,9 +50,6 @@
     <t>End Of File (LGR S/N: 21422117)</t>
   </si>
   <si>
-    <t>Logged</t>
-  </si>
-  <si>
     <t>#Logger data for Lily Pad Pond</t>
   </si>
   <si>
@@ -71,7 +68,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -611,9 +608,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -651,7 +648,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -757,7 +754,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -899,17 +896,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5846"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H5755"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5735" workbookViewId="0">
+      <selection activeCell="A5763" sqref="A5763"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -81489,1290 +81488,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5756" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5756">
-        <v>5754</v>
-      </c>
-      <c r="B5756" s="1">
-        <v>44796.427083333336</v>
-      </c>
-      <c r="C5756">
-        <v>79.852999999999994</v>
-      </c>
-      <c r="D5756">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5757" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5757">
-        <v>5755</v>
-      </c>
-      <c r="B5757" s="1">
-        <v>44796.4375</v>
-      </c>
-      <c r="C5757">
-        <v>74.619</v>
-      </c>
-      <c r="D5757">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5758" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5758">
-        <v>5756</v>
-      </c>
-      <c r="B5758" s="1">
-        <v>44796.447916666664</v>
-      </c>
-      <c r="C5758">
-        <v>73.061999999999998</v>
-      </c>
-      <c r="D5758">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5759" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5759">
-        <v>5757</v>
-      </c>
-      <c r="B5759" s="1">
-        <v>44796.458333333336</v>
-      </c>
-      <c r="C5759">
-        <v>72.198999999999998</v>
-      </c>
-      <c r="D5759">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5760" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5760">
-        <v>5758</v>
-      </c>
-      <c r="B5760" s="1">
-        <v>44796.46875</v>
-      </c>
-      <c r="C5760">
-        <v>72.718000000000004</v>
-      </c>
-      <c r="D5760">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5761" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5761">
-        <v>5759</v>
-      </c>
-      <c r="B5761" s="1">
-        <v>44796.479166666664</v>
-      </c>
-      <c r="C5761">
-        <v>74.445999999999998</v>
-      </c>
-      <c r="D5761">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5762" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5762">
-        <v>5760</v>
-      </c>
-      <c r="B5762" s="1">
-        <v>44796.489583333336</v>
-      </c>
-      <c r="C5762">
-        <v>74.790999999999997</v>
-      </c>
-      <c r="D5762">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5763" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5763">
-        <v>5761</v>
-      </c>
-      <c r="B5763" s="1">
-        <v>44796.5</v>
-      </c>
-      <c r="C5763">
-        <v>74.619</v>
-      </c>
-      <c r="D5763">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5764" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5764">
-        <v>5762</v>
-      </c>
-      <c r="B5764" s="1">
-        <v>44796.510416666664</v>
-      </c>
-      <c r="C5764">
-        <v>74.619</v>
-      </c>
-      <c r="D5764">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5765" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5765">
-        <v>5763</v>
-      </c>
-      <c r="B5765" s="1">
-        <v>44796.520833333336</v>
-      </c>
-      <c r="C5765">
-        <v>73.926000000000002</v>
-      </c>
-      <c r="D5765">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5766" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5766">
-        <v>5764</v>
-      </c>
-      <c r="B5766" s="1">
-        <v>44796.53125</v>
-      </c>
-      <c r="C5766">
-        <v>73.233999999999995</v>
-      </c>
-      <c r="D5766">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5767" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5767">
-        <v>5765</v>
-      </c>
-      <c r="B5767" s="1">
-        <v>44796.541666666664</v>
-      </c>
-      <c r="C5767">
-        <v>73.406999999999996</v>
-      </c>
-      <c r="D5767">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5768" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5768">
-        <v>5766</v>
-      </c>
-      <c r="B5768" s="1">
-        <v>44796.552083333336</v>
-      </c>
-      <c r="C5768">
-        <v>73.233999999999995</v>
-      </c>
-      <c r="D5768">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5769" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5769">
-        <v>5767</v>
-      </c>
-      <c r="B5769" s="1">
-        <v>44796.5625</v>
-      </c>
-      <c r="C5769">
-        <v>73.233999999999995</v>
-      </c>
-      <c r="D5769">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5770" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5770">
-        <v>5768</v>
-      </c>
-      <c r="B5770" s="1">
-        <v>44796.572916666664</v>
-      </c>
-      <c r="C5770">
-        <v>73.061999999999998</v>
-      </c>
-      <c r="D5770">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5771" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5771">
-        <v>5769</v>
-      </c>
-      <c r="B5771" s="1">
-        <v>44796.583333333336</v>
-      </c>
-      <c r="C5771">
-        <v>72.718000000000004</v>
-      </c>
-      <c r="D5771">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5772" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5772">
-        <v>5770</v>
-      </c>
-      <c r="B5772" s="1">
-        <v>44796.59375</v>
-      </c>
-      <c r="C5772">
-        <v>72.545000000000002</v>
-      </c>
-      <c r="D5772">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5773" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5773">
-        <v>5771</v>
-      </c>
-      <c r="B5773" s="1">
-        <v>44796.604166666664</v>
-      </c>
-      <c r="C5773">
-        <v>72.028000000000006</v>
-      </c>
-      <c r="D5773">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5774" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5774">
-        <v>5772</v>
-      </c>
-      <c r="B5774" s="1">
-        <v>44796.614583333336</v>
-      </c>
-      <c r="C5774">
-        <v>72.028000000000006</v>
-      </c>
-      <c r="D5774">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5775" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5775">
-        <v>5773</v>
-      </c>
-      <c r="B5775" s="1">
-        <v>44796.625</v>
-      </c>
-      <c r="C5775">
-        <v>71.855999999999995</v>
-      </c>
-      <c r="D5775">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5776" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5776">
-        <v>5774</v>
-      </c>
-      <c r="B5776" s="1">
-        <v>44796.635416666664</v>
-      </c>
-      <c r="C5776">
-        <v>72.718000000000004</v>
-      </c>
-      <c r="D5776">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5777" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5777">
-        <v>5775</v>
-      </c>
-      <c r="B5777" s="1">
-        <v>44796.645833333336</v>
-      </c>
-      <c r="C5777">
-        <v>73.233999999999995</v>
-      </c>
-      <c r="D5777">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5778" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5778">
-        <v>5776</v>
-      </c>
-      <c r="B5778" s="1">
-        <v>44796.65625</v>
-      </c>
-      <c r="C5778">
-        <v>73.58</v>
-      </c>
-      <c r="D5778">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5779" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5779">
-        <v>5777</v>
-      </c>
-      <c r="B5779" s="1">
-        <v>44796.666666666664</v>
-      </c>
-      <c r="C5779">
-        <v>73.58</v>
-      </c>
-      <c r="D5779">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5780" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5780">
-        <v>5778</v>
-      </c>
-      <c r="B5780" s="1">
-        <v>44796.677083333336</v>
-      </c>
-      <c r="C5780">
-        <v>73.406999999999996</v>
-      </c>
-      <c r="D5780">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5781" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5781">
-        <v>5779</v>
-      </c>
-      <c r="B5781" s="1">
-        <v>44796.6875</v>
-      </c>
-      <c r="C5781">
-        <v>73.233999999999995</v>
-      </c>
-      <c r="D5781">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5782" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5782">
-        <v>5780</v>
-      </c>
-      <c r="B5782" s="1">
-        <v>44796.697916666664</v>
-      </c>
-      <c r="C5782">
-        <v>72.891000000000005</v>
-      </c>
-      <c r="D5782">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5783" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5783">
-        <v>5781</v>
-      </c>
-      <c r="B5783" s="1">
-        <v>44796.708333333336</v>
-      </c>
-      <c r="C5783">
-        <v>72.718000000000004</v>
-      </c>
-      <c r="D5783">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5784" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5784">
-        <v>5782</v>
-      </c>
-      <c r="B5784" s="1">
-        <v>44796.71875</v>
-      </c>
-      <c r="C5784">
-        <v>72.545000000000002</v>
-      </c>
-      <c r="D5784">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5785" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5785">
-        <v>5783</v>
-      </c>
-      <c r="B5785" s="1">
-        <v>44796.729166666664</v>
-      </c>
-      <c r="C5785">
-        <v>72.718000000000004</v>
-      </c>
-      <c r="D5785">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5786" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5786">
-        <v>5784</v>
-      </c>
-      <c r="B5786" s="1">
-        <v>44796.739583333336</v>
-      </c>
-      <c r="C5786">
-        <v>72.718000000000004</v>
-      </c>
-      <c r="D5786">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5787" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5787">
-        <v>5785</v>
-      </c>
-      <c r="B5787" s="1">
-        <v>44796.75</v>
-      </c>
-      <c r="C5787">
-        <v>72.891000000000005</v>
-      </c>
-      <c r="D5787">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5788" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5788">
-        <v>5786</v>
-      </c>
-      <c r="B5788" s="1">
-        <v>44796.760416666664</v>
-      </c>
-      <c r="C5788">
-        <v>73.061999999999998</v>
-      </c>
-      <c r="D5788">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5789" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5789">
-        <v>5787</v>
-      </c>
-      <c r="B5789" s="1">
-        <v>44796.770833333336</v>
-      </c>
-      <c r="C5789">
-        <v>73.233999999999995</v>
-      </c>
-      <c r="D5789">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5790" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5790">
-        <v>5788</v>
-      </c>
-      <c r="B5790" s="1">
-        <v>44796.78125</v>
-      </c>
-      <c r="C5790">
-        <v>73.406999999999996</v>
-      </c>
-      <c r="D5790">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5791" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5791">
-        <v>5789</v>
-      </c>
-      <c r="B5791" s="1">
-        <v>44796.791666666664</v>
-      </c>
-      <c r="C5791">
-        <v>73.58</v>
-      </c>
-      <c r="D5791">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5792" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5792">
-        <v>5790</v>
-      </c>
-      <c r="B5792" s="1">
-        <v>44796.802083333336</v>
-      </c>
-      <c r="C5792">
-        <v>73.58</v>
-      </c>
-      <c r="D5792">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5793" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5793">
-        <v>5791</v>
-      </c>
-      <c r="B5793" s="1">
-        <v>44796.8125</v>
-      </c>
-      <c r="C5793">
-        <v>73.753</v>
-      </c>
-      <c r="D5793">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5794" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5794">
-        <v>5792</v>
-      </c>
-      <c r="B5794" s="1">
-        <v>44796.822916666664</v>
-      </c>
-      <c r="C5794">
-        <v>73.753</v>
-      </c>
-      <c r="D5794">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5795" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5795">
-        <v>5793</v>
-      </c>
-      <c r="B5795" s="1">
-        <v>44796.833333333336</v>
-      </c>
-      <c r="C5795">
-        <v>73.753</v>
-      </c>
-      <c r="D5795">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5796" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5796">
-        <v>5794</v>
-      </c>
-      <c r="B5796" s="1">
-        <v>44796.84375</v>
-      </c>
-      <c r="C5796">
-        <v>73.753</v>
-      </c>
-      <c r="D5796">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5797" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5797">
-        <v>5795</v>
-      </c>
-      <c r="B5797" s="1">
-        <v>44796.854166666664</v>
-      </c>
-      <c r="C5797">
-        <v>73.753</v>
-      </c>
-      <c r="D5797">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5798" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5798">
-        <v>5796</v>
-      </c>
-      <c r="B5798" s="1">
-        <v>44796.864583333336</v>
-      </c>
-      <c r="C5798">
-        <v>73.753</v>
-      </c>
-      <c r="D5798">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5799" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5799">
-        <v>5797</v>
-      </c>
-      <c r="B5799" s="1">
-        <v>44796.875</v>
-      </c>
-      <c r="C5799">
-        <v>73.753</v>
-      </c>
-      <c r="D5799">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5800" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5800">
-        <v>5798</v>
-      </c>
-      <c r="B5800" s="1">
-        <v>44796.885416666664</v>
-      </c>
-      <c r="C5800">
-        <v>73.753</v>
-      </c>
-      <c r="D5800">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5801" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5801">
-        <v>5799</v>
-      </c>
-      <c r="B5801" s="1">
-        <v>44796.895833333336</v>
-      </c>
-      <c r="C5801">
-        <v>73.58</v>
-      </c>
-      <c r="D5801">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5802" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5802">
-        <v>5800</v>
-      </c>
-      <c r="B5802" s="1">
-        <v>44796.90625</v>
-      </c>
-      <c r="C5802">
-        <v>73.58</v>
-      </c>
-      <c r="D5802">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5803" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5803">
-        <v>5801</v>
-      </c>
-      <c r="B5803" s="1">
-        <v>44796.916666666664</v>
-      </c>
-      <c r="C5803">
-        <v>73.58</v>
-      </c>
-      <c r="D5803">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5804" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5804">
-        <v>5802</v>
-      </c>
-      <c r="B5804" s="1">
-        <v>44796.927083333336</v>
-      </c>
-      <c r="C5804">
-        <v>73.58</v>
-      </c>
-      <c r="D5804">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5805" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5805">
-        <v>5803</v>
-      </c>
-      <c r="B5805" s="1">
-        <v>44796.9375</v>
-      </c>
-      <c r="C5805">
-        <v>73.753</v>
-      </c>
-      <c r="D5805">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5806" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5806">
-        <v>5804</v>
-      </c>
-      <c r="B5806" s="1">
-        <v>44796.947916666664</v>
-      </c>
-      <c r="C5806">
-        <v>73.926000000000002</v>
-      </c>
-      <c r="D5806">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5807" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5807">
-        <v>5805</v>
-      </c>
-      <c r="B5807" s="1">
-        <v>44796.958333333336</v>
-      </c>
-      <c r="C5807">
-        <v>73.926000000000002</v>
-      </c>
-      <c r="D5807">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5808" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5808">
-        <v>5806</v>
-      </c>
-      <c r="B5808" s="1">
-        <v>44796.96875</v>
-      </c>
-      <c r="C5808">
-        <v>73.58</v>
-      </c>
-      <c r="D5808">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5809" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5809">
-        <v>5807</v>
-      </c>
-      <c r="B5809" s="1">
-        <v>44796.979166666664</v>
-      </c>
-      <c r="C5809">
-        <v>73.233999999999995</v>
-      </c>
-      <c r="D5809">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5810" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5810">
-        <v>5808</v>
-      </c>
-      <c r="B5810" s="1">
-        <v>44796.989583333336</v>
-      </c>
-      <c r="C5810">
-        <v>73.233999999999995</v>
-      </c>
-      <c r="D5810">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5811" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5811">
-        <v>5809</v>
-      </c>
-      <c r="B5811" s="1">
-        <v>44797</v>
-      </c>
-      <c r="C5811">
-        <v>73.233999999999995</v>
-      </c>
-      <c r="D5811">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5812" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5812">
-        <v>5810</v>
-      </c>
-      <c r="B5812" s="1">
-        <v>44797.010416666664</v>
-      </c>
-      <c r="C5812">
-        <v>73.061999999999998</v>
-      </c>
-      <c r="D5812">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5813" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5813">
-        <v>5811</v>
-      </c>
-      <c r="B5813" s="1">
-        <v>44797.020833333336</v>
-      </c>
-      <c r="C5813">
-        <v>72.891000000000005</v>
-      </c>
-      <c r="D5813">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5814" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5814">
-        <v>5812</v>
-      </c>
-      <c r="B5814" s="1">
-        <v>44797.03125</v>
-      </c>
-      <c r="C5814">
-        <v>72.891000000000005</v>
-      </c>
-      <c r="D5814">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5815" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5815">
-        <v>5813</v>
-      </c>
-      <c r="B5815" s="1">
-        <v>44797.041666666664</v>
-      </c>
-      <c r="C5815">
-        <v>72.718000000000004</v>
-      </c>
-      <c r="D5815">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5816" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5816">
-        <v>5814</v>
-      </c>
-      <c r="B5816" s="1">
-        <v>44797.052083333336</v>
-      </c>
-      <c r="C5816">
-        <v>72.718000000000004</v>
-      </c>
-      <c r="D5816">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5817" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5817">
-        <v>5815</v>
-      </c>
-      <c r="B5817" s="1">
-        <v>44797.0625</v>
-      </c>
-      <c r="C5817">
-        <v>72.718000000000004</v>
-      </c>
-      <c r="D5817">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5818" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5818">
-        <v>5816</v>
-      </c>
-      <c r="B5818" s="1">
-        <v>44797.072916666664</v>
-      </c>
-      <c r="C5818">
-        <v>72.545000000000002</v>
-      </c>
-      <c r="D5818">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5819" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5819">
-        <v>5817</v>
-      </c>
-      <c r="B5819" s="1">
-        <v>44797.083333333336</v>
-      </c>
-      <c r="C5819">
-        <v>72.545000000000002</v>
-      </c>
-      <c r="D5819">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5820" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5820">
-        <v>5818</v>
-      </c>
-      <c r="B5820" s="1">
-        <v>44797.09375</v>
-      </c>
-      <c r="C5820">
-        <v>72.372</v>
-      </c>
-      <c r="D5820">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5821" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5821">
-        <v>5819</v>
-      </c>
-      <c r="B5821" s="1">
-        <v>44797.104166666664</v>
-      </c>
-      <c r="C5821">
-        <v>72.372</v>
-      </c>
-      <c r="D5821">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5822" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5822">
-        <v>5820</v>
-      </c>
-      <c r="B5822" s="1">
-        <v>44797.114583333336</v>
-      </c>
-      <c r="C5822">
-        <v>72.372</v>
-      </c>
-      <c r="D5822">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5823" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5823">
-        <v>5821</v>
-      </c>
-      <c r="B5823" s="1">
-        <v>44797.125</v>
-      </c>
-      <c r="C5823">
-        <v>72.198999999999998</v>
-      </c>
-      <c r="D5823">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5824" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5824">
-        <v>5822</v>
-      </c>
-      <c r="B5824" s="1">
-        <v>44797.135416666664</v>
-      </c>
-      <c r="C5824">
-        <v>72.028000000000006</v>
-      </c>
-      <c r="D5824">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5825" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5825">
-        <v>5823</v>
-      </c>
-      <c r="B5825" s="1">
-        <v>44797.145833333336</v>
-      </c>
-      <c r="C5825">
-        <v>72.028000000000006</v>
-      </c>
-      <c r="D5825">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5826" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5826">
-        <v>5824</v>
-      </c>
-      <c r="B5826" s="1">
-        <v>44797.15625</v>
-      </c>
-      <c r="C5826">
-        <v>72.028000000000006</v>
-      </c>
-      <c r="D5826">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5827" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5827">
-        <v>5825</v>
-      </c>
-      <c r="B5827" s="1">
-        <v>44797.166666666664</v>
-      </c>
-      <c r="C5827">
-        <v>72.028000000000006</v>
-      </c>
-      <c r="D5827">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5828" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5828">
-        <v>5826</v>
-      </c>
-      <c r="B5828" s="1">
-        <v>44797.177083333336</v>
-      </c>
-      <c r="C5828">
-        <v>72.028000000000006</v>
-      </c>
-      <c r="D5828">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5829" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5829">
-        <v>5827</v>
-      </c>
-      <c r="B5829" s="1">
-        <v>44797.1875</v>
-      </c>
-      <c r="C5829">
-        <v>72.028000000000006</v>
-      </c>
-      <c r="D5829">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5830" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5830">
-        <v>5828</v>
-      </c>
-      <c r="B5830" s="1">
-        <v>44797.197916666664</v>
-      </c>
-      <c r="C5830">
-        <v>71.855999999999995</v>
-      </c>
-      <c r="D5830">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5831" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5831">
-        <v>5829</v>
-      </c>
-      <c r="B5831" s="1">
-        <v>44797.208333333336</v>
-      </c>
-      <c r="C5831">
-        <v>71.683000000000007</v>
-      </c>
-      <c r="D5831">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5832" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5832">
-        <v>5830</v>
-      </c>
-      <c r="B5832" s="1">
-        <v>44797.21875</v>
-      </c>
-      <c r="C5832">
-        <v>71.683000000000007</v>
-      </c>
-      <c r="D5832">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5833" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5833">
-        <v>5831</v>
-      </c>
-      <c r="B5833" s="1">
-        <v>44797.229166666664</v>
-      </c>
-      <c r="C5833">
-        <v>71.683000000000007</v>
-      </c>
-      <c r="D5833">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5834" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5834">
-        <v>5832</v>
-      </c>
-      <c r="B5834" s="1">
-        <v>44797.239583333336</v>
-      </c>
-      <c r="C5834">
-        <v>71.683000000000007</v>
-      </c>
-      <c r="D5834">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5835" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5835">
-        <v>5833</v>
-      </c>
-      <c r="B5835" s="1">
-        <v>44797.25</v>
-      </c>
-      <c r="C5835">
-        <v>71.683000000000007</v>
-      </c>
-      <c r="D5835">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5836" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5836">
-        <v>5834</v>
-      </c>
-      <c r="B5836" s="1">
-        <v>44797.260416666664</v>
-      </c>
-      <c r="C5836">
-        <v>71.683000000000007</v>
-      </c>
-      <c r="D5836">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5837" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5837">
-        <v>5835</v>
-      </c>
-      <c r="B5837" s="1">
-        <v>44797.270833333336</v>
-      </c>
-      <c r="C5837">
-        <v>71.683000000000007</v>
-      </c>
-      <c r="D5837">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5838" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5838">
-        <v>5836</v>
-      </c>
-      <c r="B5838" s="1">
-        <v>44797.28125</v>
-      </c>
-      <c r="C5838">
-        <v>71.512</v>
-      </c>
-      <c r="D5838">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5839" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5839">
-        <v>5837</v>
-      </c>
-      <c r="B5839" s="1">
-        <v>44797.291666666664</v>
-      </c>
-      <c r="C5839">
-        <v>71.512</v>
-      </c>
-      <c r="D5839">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5840" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5840">
-        <v>5838</v>
-      </c>
-      <c r="B5840" s="1">
-        <v>44797.302083333336</v>
-      </c>
-      <c r="C5840">
-        <v>71.512</v>
-      </c>
-      <c r="D5840">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5841" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5841">
-        <v>5839</v>
-      </c>
-      <c r="B5841" s="1">
-        <v>44797.3125</v>
-      </c>
-      <c r="C5841">
-        <v>71.512</v>
-      </c>
-      <c r="D5841">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5842" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5842">
-        <v>5840</v>
-      </c>
-      <c r="B5842" s="1">
-        <v>44797.322916666664</v>
-      </c>
-      <c r="C5842">
-        <v>71.512</v>
-      </c>
-      <c r="D5842">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5843" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5843">
-        <v>5841</v>
-      </c>
-      <c r="B5843" s="1">
-        <v>44797.333333333336</v>
-      </c>
-      <c r="C5843">
-        <v>71.683000000000007</v>
-      </c>
-      <c r="D5843">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5844" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5844">
-        <v>5842</v>
-      </c>
-      <c r="B5844" s="1">
-        <v>44797.34375</v>
-      </c>
-      <c r="C5844">
-        <v>72.198999999999998</v>
-      </c>
-      <c r="D5844">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5845" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5845">
-        <v>5843</v>
-      </c>
-      <c r="B5845" s="1">
-        <v>44797.344224537039</v>
-      </c>
-      <c r="E5845" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5845" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5846" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5846">
-        <v>5844</v>
-      </c>
-      <c r="B5846" s="1">
-        <v>44797.344548611109</v>
-      </c>
-      <c r="G5846" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5846" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -82780,27 +81505,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -83036,15 +81761,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="94106a43-364c-4431-a764-9e3dd608a139" xsi:nil="true"/>
@@ -83055,14 +81771,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE117871-19B9-4C4A-BBC0-E4411B10DE3F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE117871-19B9-4C4A-BBC0-E4411B10DE3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7E10421-C978-4AC3-A2DA-754EF503EB29}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CE78F62-EBE1-4996-8426-578335F1F33C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CE78F62-EBE1-4996-8426-578335F1F33C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7E10421-C978-4AC3-A2DA-754EF503EB29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>